--- a/biology/Botanique/Épigée_asiatique/Épigée_asiatique.xlsx
+++ b/biology/Botanique/Épigée_asiatique/Épigée_asiatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pig%C3%A9e_asiatique</t>
+          <t>Épigée_asiatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epigaea asiatica
-L'Épigée asiatique, Epigaea asiatica, est une espèce de plantes à fleurs de la famille des Ericaceae originaire du Japon[1].
+L'Épigée asiatique, Epigaea asiatica, est une espèce de plantes à fleurs de la famille des Ericaceae originaire du Japon.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pig%C3%A9e_asiatique</t>
+          <t>Épigée_asiatique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Épigée asiatique est un buisson à feuilles persistantes atteignant 0,1 m (0 pi 4 po) sur 0,5 m (1 pi 8 po). Il est rustique jusqu'en zone (UK) 4. Il est en feuilles toute l'année, en fleur d'avril à mai. L'espèce est hermaphrodite (a des organes mâles et femelles).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pig%C3%A9e_asiatique</t>
+          <t>Épigée_asiatique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les graines sont dispersées par les fourmis.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pig%C3%A9e_asiatique</t>
+          <t>Épigée_asiatique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bord de mer de Hokkaido à Honshū au Japon, environnement : forêts de montagne, type de vie : Petits arbres à feuilles persistantes, hauteur : 10-15 cm.
 </t>
